--- a/Code/Results/Cases/Case_4_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020931387717224</v>
+        <v>1.044963513270107</v>
       </c>
       <c r="D2">
-        <v>1.03902393612362</v>
+        <v>1.051611279436675</v>
       </c>
       <c r="E2">
-        <v>1.028972358682701</v>
+        <v>1.04862853679733</v>
       </c>
       <c r="F2">
-        <v>1.043868857118387</v>
+        <v>1.060823508964299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057698962335242</v>
+        <v>1.047467407214167</v>
       </c>
       <c r="J2">
-        <v>1.042503573355187</v>
+        <v>1.050025785938069</v>
       </c>
       <c r="K2">
-        <v>1.049965113355976</v>
+        <v>1.054362301491858</v>
       </c>
       <c r="L2">
-        <v>1.040042295678405</v>
+        <v>1.051387850803691</v>
       </c>
       <c r="M2">
-        <v>1.054749075644203</v>
+        <v>1.063549240062761</v>
       </c>
       <c r="N2">
-        <v>1.043984048006182</v>
+        <v>1.051516942993742</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025388297980213</v>
+        <v>1.045901871283291</v>
       </c>
       <c r="D3">
-        <v>1.042432607432014</v>
+        <v>1.0523483267766</v>
       </c>
       <c r="E3">
-        <v>1.032947451635277</v>
+        <v>1.049515926511447</v>
       </c>
       <c r="F3">
-        <v>1.047816018890561</v>
+        <v>1.061699343379731</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059343660383881</v>
+        <v>1.047752324079971</v>
       </c>
       <c r="J3">
-        <v>1.045209992010546</v>
+        <v>1.050611668050107</v>
       </c>
       <c r="K3">
-        <v>1.052549883958868</v>
+        <v>1.054912224137957</v>
       </c>
       <c r="L3">
-        <v>1.04317542953525</v>
+        <v>1.05208712931398</v>
       </c>
       <c r="M3">
-        <v>1.05787156557572</v>
+        <v>1.064239420535706</v>
       </c>
       <c r="N3">
-        <v>1.046694310086462</v>
+        <v>1.05210365712558</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028214955463989</v>
+        <v>1.046509516741036</v>
       </c>
       <c r="D4">
-        <v>1.044597144467382</v>
+        <v>1.052825624601757</v>
       </c>
       <c r="E4">
-        <v>1.035473584688383</v>
+        <v>1.050090919072066</v>
       </c>
       <c r="F4">
-        <v>1.050324131668423</v>
+        <v>1.062266778498737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060377178681989</v>
+        <v>1.047935636754025</v>
       </c>
       <c r="J4">
-        <v>1.046923456949297</v>
+        <v>1.050990600365344</v>
       </c>
       <c r="K4">
-        <v>1.054185543225288</v>
+        <v>1.055267770684374</v>
       </c>
       <c r="L4">
-        <v>1.045161926532835</v>
+        <v>1.052539763896448</v>
       </c>
       <c r="M4">
-        <v>1.059850881455826</v>
+        <v>1.064686083024082</v>
       </c>
       <c r="N4">
-        <v>1.048410208341964</v>
+        <v>1.05248312756817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029390046575962</v>
+        <v>1.046765081196567</v>
       </c>
       <c r="D5">
-        <v>1.045497581124832</v>
+        <v>1.053026369952293</v>
       </c>
       <c r="E5">
-        <v>1.036524922526228</v>
+        <v>1.050332834215874</v>
       </c>
       <c r="F5">
-        <v>1.051367896396556</v>
+        <v>1.062505497155984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060804495661414</v>
+        <v>1.048012449987667</v>
       </c>
       <c r="J5">
-        <v>1.047635024205525</v>
+        <v>1.051149861223877</v>
       </c>
       <c r="K5">
-        <v>1.054864602476945</v>
+        <v>1.055417171980775</v>
       </c>
       <c r="L5">
-        <v>1.045987572681734</v>
+        <v>1.052730087372701</v>
       </c>
       <c r="M5">
-        <v>1.060673431940748</v>
+        <v>1.064873875393324</v>
       </c>
       <c r="N5">
-        <v>1.049122786105314</v>
+        <v>1.052642614595389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029586586721307</v>
+        <v>1.046807998031541</v>
       </c>
       <c r="D6">
-        <v>1.045648217887894</v>
+        <v>1.053060081179447</v>
       </c>
       <c r="E6">
-        <v>1.036700832732802</v>
+        <v>1.050373463834004</v>
       </c>
       <c r="F6">
-        <v>1.051542534915632</v>
+        <v>1.062545588933259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060875828390992</v>
+        <v>1.048025332506562</v>
       </c>
       <c r="J6">
-        <v>1.047753992573035</v>
+        <v>1.051176599314959</v>
       </c>
       <c r="K6">
-        <v>1.054978123971722</v>
+        <v>1.055442252954225</v>
       </c>
       <c r="L6">
-        <v>1.046125655084287</v>
+        <v>1.052762045594362</v>
       </c>
       <c r="M6">
-        <v>1.060810989890119</v>
+        <v>1.064905407430224</v>
       </c>
       <c r="N6">
-        <v>1.049241923421551</v>
+        <v>1.052669390657628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028230708486214</v>
+        <v>1.046512931173661</v>
       </c>
       <c r="D7">
-        <v>1.044609213216663</v>
+        <v>1.052828306621607</v>
       </c>
       <c r="E7">
-        <v>1.035487674081512</v>
+        <v>1.050094150815973</v>
       </c>
       <c r="F7">
-        <v>1.050338119871874</v>
+        <v>1.062269967607137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060382916471426</v>
+        <v>1.04793666412487</v>
       </c>
       <c r="J7">
-        <v>1.046932999072412</v>
+        <v>1.050992728584099</v>
       </c>
       <c r="K7">
-        <v>1.054194650203723</v>
+        <v>1.055269767269968</v>
       </c>
       <c r="L7">
-        <v>1.045172995705296</v>
+        <v>1.0525423068684</v>
       </c>
       <c r="M7">
-        <v>1.059861909573453</v>
+        <v>1.064688592255665</v>
       </c>
       <c r="N7">
-        <v>1.048419764015988</v>
+        <v>1.05248525880924</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022449769835644</v>
+        <v>1.045280538833057</v>
       </c>
       <c r="D8">
-        <v>1.040184611045673</v>
+        <v>1.051860288757976</v>
       </c>
       <c r="E8">
-        <v>1.030325515543172</v>
+        <v>1.048928269486809</v>
       </c>
       <c r="F8">
-        <v>1.045212557250206</v>
+        <v>1.061119353076505</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058261264835151</v>
+        <v>1.047563912740383</v>
       </c>
       <c r="J8">
-        <v>1.043426206343102</v>
+        <v>1.050223822693494</v>
       </c>
       <c r="K8">
-        <v>1.050846436721067</v>
+        <v>1.054548209905028</v>
       </c>
       <c r="L8">
-        <v>1.041109797917525</v>
+        <v>1.05162414255981</v>
       </c>
       <c r="M8">
-        <v>1.055813037576522</v>
+        <v>1.063782474660187</v>
       </c>
       <c r="N8">
-        <v>1.044907991238768</v>
+        <v>1.051715260984075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011802008699487</v>
+        <v>1.043112513755309</v>
       </c>
       <c r="D9">
-        <v>1.032058662536546</v>
+        <v>1.050157479969602</v>
       </c>
       <c r="E9">
-        <v>1.020859241041066</v>
+        <v>1.046879963782977</v>
       </c>
       <c r="F9">
-        <v>1.035811661980581</v>
+        <v>1.059097337802233</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054278965682401</v>
+        <v>1.046899081274769</v>
       </c>
       <c r="J9">
-        <v>1.036944782219978</v>
+        <v>1.048867633242341</v>
       </c>
       <c r="K9">
-        <v>1.044652174528254</v>
+        <v>1.053274555492503</v>
       </c>
       <c r="L9">
-        <v>1.03362271999614</v>
+        <v>1.050007453469231</v>
       </c>
       <c r="M9">
-        <v>1.048349262082645</v>
+        <v>1.062186365355691</v>
       </c>
       <c r="N9">
-        <v>1.038417362749959</v>
+        <v>1.050357145588344</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004360180395773</v>
+        <v>1.041669649810794</v>
       </c>
       <c r="D10">
-        <v>1.02639860176247</v>
+        <v>1.049024346662003</v>
       </c>
       <c r="E10">
-        <v>1.014273837072967</v>
+        <v>1.045518625396685</v>
       </c>
       <c r="F10">
-        <v>1.029271179288449</v>
+        <v>1.057753120715913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051447688013586</v>
+        <v>1.046450520806529</v>
       </c>
       <c r="J10">
-        <v>1.032401867484715</v>
+        <v>1.047962704036091</v>
       </c>
       <c r="K10">
-        <v>1.040307036677375</v>
+        <v>1.052424047205063</v>
       </c>
       <c r="L10">
-        <v>1.028390068366747</v>
+        <v>1.048930556249003</v>
       </c>
       <c r="M10">
-        <v>1.043131308113789</v>
+        <v>1.061122756859943</v>
       </c>
       <c r="N10">
-        <v>1.033867996554692</v>
+        <v>1.049450931278824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00104829185109</v>
+        <v>1.041045475834318</v>
       </c>
       <c r="D11">
-        <v>1.023885002485564</v>
+        <v>1.048534195878929</v>
       </c>
       <c r="E11">
-        <v>1.011350936539127</v>
+        <v>1.044930163338097</v>
       </c>
       <c r="F11">
-        <v>1.026368228916664</v>
+        <v>1.057171977350647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050176834709569</v>
+        <v>1.046255030258024</v>
       </c>
       <c r="J11">
-        <v>1.03037752558945</v>
+        <v>1.047570681074801</v>
       </c>
       <c r="K11">
-        <v>1.038370114813814</v>
+        <v>1.052055446671656</v>
       </c>
       <c r="L11">
-        <v>1.026061919225471</v>
+        <v>1.048464473961206</v>
       </c>
       <c r="M11">
-        <v>1.040809441073791</v>
+        <v>1.060662327462456</v>
       </c>
       <c r="N11">
-        <v>1.031840779861741</v>
+        <v>1.049058351599964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9998039173613158</v>
+        <v>1.040813720262016</v>
       </c>
       <c r="D12">
-        <v>1.022941439772795</v>
+        <v>1.048352209025617</v>
       </c>
       <c r="E12">
-        <v>1.010253946898208</v>
+        <v>1.044711734848115</v>
       </c>
       <c r="F12">
-        <v>1.025278741689795</v>
+        <v>1.056956253184017</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049697759983017</v>
+        <v>1.046182227501265</v>
       </c>
       <c r="J12">
-        <v>1.029616578075648</v>
+        <v>1.047425039772077</v>
       </c>
       <c r="K12">
-        <v>1.037641932279488</v>
+        <v>1.051918484178247</v>
       </c>
       <c r="L12">
-        <v>1.025187299320485</v>
+        <v>1.04829138457072</v>
       </c>
       <c r="M12">
-        <v>1.039937153243779</v>
+        <v>1.060491322681561</v>
       </c>
       <c r="N12">
-        <v>1.031078751715188</v>
+        <v>1.048912503469885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000071494578173</v>
+        <v>1.040863428511408</v>
       </c>
       <c r="D13">
-        <v>1.023144293091119</v>
+        <v>1.048391242318805</v>
       </c>
       <c r="E13">
-        <v>1.010489775569283</v>
+        <v>1.044758581577752</v>
       </c>
       <c r="F13">
-        <v>1.025512956612137</v>
+        <v>1.057002520466539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049800845637412</v>
+        <v>1.046197852476922</v>
       </c>
       <c r="J13">
-        <v>1.029780218963113</v>
+        <v>1.047456281511201</v>
       </c>
       <c r="K13">
-        <v>1.037798531262585</v>
+        <v>1.051947865247613</v>
       </c>
       <c r="L13">
-        <v>1.025375361513583</v>
+        <v>1.04832851126208</v>
       </c>
       <c r="M13">
-        <v>1.040124715074293</v>
+        <v>1.060528002900257</v>
       </c>
       <c r="N13">
-        <v>1.031242624991482</v>
+        <v>1.048943789575861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000945725438565</v>
+        <v>1.041026316996095</v>
       </c>
       <c r="D14">
-        <v>1.023807212091981</v>
+        <v>1.048519151210926</v>
       </c>
       <c r="E14">
-        <v>1.011260492865876</v>
+        <v>1.04491210485202</v>
       </c>
       <c r="F14">
-        <v>1.026278403413736</v>
+        <v>1.057154142693178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050137379193244</v>
+        <v>1.046249016208854</v>
       </c>
       <c r="J14">
-        <v>1.030314811891042</v>
+        <v>1.047558642854959</v>
       </c>
       <c r="K14">
-        <v>1.038310103340671</v>
+        <v>1.052044126279664</v>
       </c>
       <c r="L14">
-        <v>1.025989826468716</v>
+        <v>1.048450165631789</v>
       </c>
       <c r="M14">
-        <v>1.040737541048263</v>
+        <v>1.060648191755609</v>
       </c>
       <c r="N14">
-        <v>1.031777977102688</v>
+        <v>1.049046296284469</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001482464366535</v>
+        <v>1.041126689979294</v>
       </c>
       <c r="D15">
-        <v>1.02421433188581</v>
+        <v>1.048597970340401</v>
       </c>
       <c r="E15">
-        <v>1.011733842924556</v>
+        <v>1.04500671585786</v>
       </c>
       <c r="F15">
-        <v>1.026748518878241</v>
+        <v>1.057247580526748</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050343789322939</v>
+        <v>1.046280514863773</v>
       </c>
       <c r="J15">
-        <v>1.030642984425811</v>
+        <v>1.047621707570585</v>
       </c>
       <c r="K15">
-        <v>1.038624131633497</v>
+        <v>1.052103429567528</v>
       </c>
       <c r="L15">
-        <v>1.026367099894456</v>
+        <v>1.048525125484408</v>
       </c>
       <c r="M15">
-        <v>1.04111380480579</v>
+        <v>1.060722246654592</v>
       </c>
       <c r="N15">
-        <v>1.032106615680098</v>
+        <v>1.049109450559225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00457803117853</v>
+        <v>1.041711086811942</v>
       </c>
       <c r="D16">
-        <v>1.026564059315068</v>
+        <v>1.049056887075895</v>
       </c>
       <c r="E16">
-        <v>1.014466268667092</v>
+        <v>1.045557701002134</v>
       </c>
       <c r="F16">
-        <v>1.029462298792013</v>
+        <v>1.05779170861191</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051531061176648</v>
+        <v>1.0464634683535</v>
       </c>
       <c r="J16">
-        <v>1.032534975521196</v>
+        <v>1.047988717539335</v>
       </c>
       <c r="K16">
-        <v>1.040434382612226</v>
+        <v>1.052448503246489</v>
       </c>
       <c r="L16">
-        <v>1.028543226323463</v>
+        <v>1.048961493349875</v>
       </c>
       <c r="M16">
-        <v>1.043284048331322</v>
+        <v>1.061153316671527</v>
       </c>
       <c r="N16">
-        <v>1.034001293619853</v>
+        <v>1.049476981724227</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006495321896866</v>
+        <v>1.042077823640154</v>
       </c>
       <c r="D17">
-        <v>1.028020856345643</v>
+        <v>1.049344889143769</v>
       </c>
       <c r="E17">
-        <v>1.016160746290037</v>
+        <v>1.045903589806709</v>
       </c>
       <c r="F17">
-        <v>1.031145225556229</v>
+        <v>1.0581332708156</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052263595697985</v>
+        <v>1.046577893068163</v>
       </c>
       <c r="J17">
-        <v>1.033706162617241</v>
+        <v>1.048218884946545</v>
       </c>
       <c r="K17">
-        <v>1.041554790733575</v>
+        <v>1.052664872558295</v>
       </c>
       <c r="L17">
-        <v>1.02989123067839</v>
+        <v>1.049235275392737</v>
       </c>
       <c r="M17">
-        <v>1.044628347947294</v>
+        <v>1.061423748473028</v>
       </c>
       <c r="N17">
-        <v>1.035174143935912</v>
+        <v>1.049707475995555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007605059673255</v>
+        <v>1.042291792433531</v>
       </c>
       <c r="D18">
-        <v>1.028864559847115</v>
+        <v>1.049512924359988</v>
       </c>
       <c r="E18">
-        <v>1.017142260038985</v>
+        <v>1.046105437913788</v>
       </c>
       <c r="F18">
-        <v>1.032120048796837</v>
+        <v>1.058332586122407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052686559115858</v>
+        <v>1.046644513370557</v>
       </c>
       <c r="J18">
-        <v>1.034383804106979</v>
+        <v>1.04835312001681</v>
       </c>
       <c r="K18">
-        <v>1.042202983748511</v>
+        <v>1.052791045711179</v>
       </c>
       <c r="L18">
-        <v>1.03067151376512</v>
+        <v>1.049394989107919</v>
       </c>
       <c r="M18">
-        <v>1.045406461411826</v>
+        <v>1.061581498277918</v>
       </c>
       <c r="N18">
-        <v>1.035852747754292</v>
+        <v>1.049841901695018</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007982017012829</v>
+        <v>1.042364759970976</v>
       </c>
       <c r="D19">
-        <v>1.029151233399744</v>
+        <v>1.04957022820906</v>
       </c>
       <c r="E19">
-        <v>1.017475786313736</v>
+        <v>1.046174279318328</v>
       </c>
       <c r="F19">
-        <v>1.032451301243783</v>
+        <v>1.058400562349581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052830055556272</v>
+        <v>1.046667208512576</v>
       </c>
       <c r="J19">
-        <v>1.034613943041178</v>
+        <v>1.048398887679309</v>
       </c>
       <c r="K19">
-        <v>1.042423109607444</v>
+        <v>1.052834062139545</v>
       </c>
       <c r="L19">
-        <v>1.030936568738418</v>
+        <v>1.049449450934521</v>
       </c>
       <c r="M19">
-        <v>1.045670774805867</v>
+        <v>1.061635288802033</v>
       </c>
       <c r="N19">
-        <v>1.036083213512175</v>
+        <v>1.049887734352847</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006290507976515</v>
+        <v>1.042038470304588</v>
       </c>
       <c r="D20">
-        <v>1.027865181960532</v>
+        <v>1.049313984223041</v>
       </c>
       <c r="E20">
-        <v>1.015979657034899</v>
+        <v>1.045866469166772</v>
       </c>
       <c r="F20">
-        <v>1.030965370627969</v>
+        <v>1.058096615326483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05218544959871</v>
+        <v>1.046565628962799</v>
       </c>
       <c r="J20">
-        <v>1.033581076339192</v>
+        <v>1.048194191984534</v>
       </c>
       <c r="K20">
-        <v>1.041435134791333</v>
+        <v>1.052641661420366</v>
       </c>
       <c r="L20">
-        <v>1.029747224929434</v>
+        <v>1.049205898961558</v>
       </c>
       <c r="M20">
-        <v>1.044484740506778</v>
+        <v>1.061394732501139</v>
       </c>
       <c r="N20">
-        <v>1.035048880021</v>
+        <v>1.049682747966707</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000688684207489</v>
+        <v>1.040978347893196</v>
       </c>
       <c r="D21">
-        <v>1.023612276202715</v>
+        <v>1.048481483094701</v>
       </c>
       <c r="E21">
-        <v>1.011033852381799</v>
+        <v>1.044866891853371</v>
       </c>
       <c r="F21">
-        <v>1.026053312273763</v>
+        <v>1.057109489895912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050038474657828</v>
+        <v>1.046233954973938</v>
       </c>
       <c r="J21">
-        <v>1.03015764001027</v>
+        <v>1.047528500715198</v>
       </c>
       <c r="K21">
-        <v>1.03815970221448</v>
+        <v>1.05201578111797</v>
       </c>
       <c r="L21">
-        <v>1.02580915746797</v>
+        <v>1.048414340495939</v>
       </c>
       <c r="M21">
-        <v>1.040557354631613</v>
+        <v>1.060612798594103</v>
       </c>
       <c r="N21">
-        <v>1.031620582019817</v>
+        <v>1.049016111339412</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9970840817568924</v>
+        <v>1.040312330552301</v>
       </c>
       <c r="D22">
-        <v>1.020880770384463</v>
+        <v>1.047958502589416</v>
       </c>
       <c r="E22">
-        <v>1.007858572869915</v>
+        <v>1.044239301007214</v>
       </c>
       <c r="F22">
-        <v>1.022899792473807</v>
+        <v>1.056489646135636</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04864780006512</v>
+        <v>1.046024325957091</v>
       </c>
       <c r="J22">
-        <v>1.027952792965853</v>
+        <v>1.047109801212844</v>
       </c>
       <c r="K22">
-        <v>1.036049622017445</v>
+        <v>1.051621988999645</v>
       </c>
       <c r="L22">
-        <v>1.023275941031248</v>
+        <v>1.047916855389794</v>
       </c>
       <c r="M22">
-        <v>1.038030852344384</v>
+        <v>1.060121277357795</v>
       </c>
       <c r="N22">
-        <v>1.029412603839697</v>
+        <v>1.04859681723574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9990030321348979</v>
+        <v>1.040665348988378</v>
       </c>
       <c r="D23">
-        <v>1.022334412730237</v>
+        <v>1.04823570172809</v>
       </c>
       <c r="E23">
-        <v>1.009548272665915</v>
+        <v>1.044571914644251</v>
       </c>
       <c r="F23">
-        <v>1.024577899548548</v>
+        <v>1.056818160626867</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049388987125437</v>
+        <v>1.046135557621267</v>
       </c>
       <c r="J23">
-        <v>1.029126738006639</v>
+        <v>1.047331775934121</v>
       </c>
       <c r="K23">
-        <v>1.037173158093635</v>
+        <v>1.051830771524727</v>
       </c>
       <c r="L23">
-        <v>1.024624434039151</v>
+        <v>1.048180562424267</v>
       </c>
       <c r="M23">
-        <v>1.039375782297016</v>
+        <v>1.060381831096486</v>
       </c>
       <c r="N23">
-        <v>1.030588216017095</v>
+        <v>1.048819107186582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006383081048667</v>
+        <v>1.04205625220567</v>
       </c>
       <c r="D24">
-        <v>1.027935543088605</v>
+        <v>1.04932794867677</v>
       </c>
       <c r="E24">
-        <v>1.016061504590484</v>
+        <v>1.045883242086476</v>
       </c>
       <c r="F24">
-        <v>1.03104666030068</v>
+        <v>1.058113178092895</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052220773760943</v>
+        <v>1.046571170960183</v>
       </c>
       <c r="J24">
-        <v>1.033637614385891</v>
+        <v>1.048205349725893</v>
       </c>
       <c r="K24">
-        <v>1.041489218579433</v>
+        <v>1.052652149631613</v>
       </c>
       <c r="L24">
-        <v>1.029812313390222</v>
+        <v>1.049219172840657</v>
       </c>
       <c r="M24">
-        <v>1.044549649016873</v>
+        <v>1.061407843534405</v>
       </c>
       <c r="N24">
-        <v>1.03510549835821</v>
+        <v>1.049693921553338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01461264720748</v>
+        <v>1.043672566459009</v>
       </c>
       <c r="D25">
-        <v>1.034200554780681</v>
+        <v>1.050597337472839</v>
       </c>
       <c r="E25">
-        <v>1.02335289934924</v>
+        <v>1.04740876569963</v>
       </c>
       <c r="F25">
-        <v>1.038288240321219</v>
+        <v>1.059619414917201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05533860888923</v>
+        <v>1.047071899947793</v>
       </c>
       <c r="J25">
-        <v>1.038658049998621</v>
+        <v>1.049218386423351</v>
       </c>
       <c r="K25">
-        <v>1.046290175804702</v>
+        <v>1.053604077722046</v>
       </c>
       <c r="L25">
-        <v>1.035599193913811</v>
+        <v>1.050425253351087</v>
       </c>
       <c r="M25">
-        <v>1.05031989601191</v>
+        <v>1.062598921194079</v>
       </c>
       <c r="N25">
-        <v>1.040133063565363</v>
+        <v>1.050708396879103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044963513270107</v>
+        <v>1.020931387717224</v>
       </c>
       <c r="D2">
-        <v>1.051611279436675</v>
+        <v>1.03902393612362</v>
       </c>
       <c r="E2">
-        <v>1.04862853679733</v>
+        <v>1.028972358682702</v>
       </c>
       <c r="F2">
-        <v>1.060823508964299</v>
+        <v>1.043868857118387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047467407214167</v>
+        <v>1.057698962335242</v>
       </c>
       <c r="J2">
-        <v>1.050025785938069</v>
+        <v>1.042503573355187</v>
       </c>
       <c r="K2">
-        <v>1.054362301491858</v>
+        <v>1.049965113355976</v>
       </c>
       <c r="L2">
-        <v>1.051387850803691</v>
+        <v>1.040042295678405</v>
       </c>
       <c r="M2">
-        <v>1.063549240062761</v>
+        <v>1.054749075644203</v>
       </c>
       <c r="N2">
-        <v>1.051516942993742</v>
+        <v>1.043984048006182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045901871283291</v>
+        <v>1.025388297980214</v>
       </c>
       <c r="D3">
-        <v>1.0523483267766</v>
+        <v>1.042432607432015</v>
       </c>
       <c r="E3">
-        <v>1.049515926511447</v>
+        <v>1.032947451635278</v>
       </c>
       <c r="F3">
-        <v>1.061699343379731</v>
+        <v>1.047816018890561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047752324079971</v>
+        <v>1.059343660383881</v>
       </c>
       <c r="J3">
-        <v>1.050611668050107</v>
+        <v>1.045209992010546</v>
       </c>
       <c r="K3">
-        <v>1.054912224137957</v>
+        <v>1.052549883958868</v>
       </c>
       <c r="L3">
-        <v>1.05208712931398</v>
+        <v>1.043175429535251</v>
       </c>
       <c r="M3">
-        <v>1.064239420535706</v>
+        <v>1.05787156557572</v>
       </c>
       <c r="N3">
-        <v>1.05210365712558</v>
+        <v>1.046694310086463</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046509516741036</v>
+        <v>1.028214955463988</v>
       </c>
       <c r="D4">
-        <v>1.052825624601757</v>
+        <v>1.044597144467382</v>
       </c>
       <c r="E4">
-        <v>1.050090919072066</v>
+        <v>1.035473584688383</v>
       </c>
       <c r="F4">
-        <v>1.062266778498737</v>
+        <v>1.050324131668422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047935636754025</v>
+        <v>1.060377178681989</v>
       </c>
       <c r="J4">
-        <v>1.050990600365344</v>
+        <v>1.046923456949297</v>
       </c>
       <c r="K4">
-        <v>1.055267770684374</v>
+        <v>1.054185543225288</v>
       </c>
       <c r="L4">
-        <v>1.052539763896448</v>
+        <v>1.045161926532835</v>
       </c>
       <c r="M4">
-        <v>1.064686083024082</v>
+        <v>1.059850881455826</v>
       </c>
       <c r="N4">
-        <v>1.05248312756817</v>
+        <v>1.048410208341963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046765081196567</v>
+        <v>1.029390046575961</v>
       </c>
       <c r="D5">
-        <v>1.053026369952293</v>
+        <v>1.045497581124831</v>
       </c>
       <c r="E5">
-        <v>1.050332834215874</v>
+        <v>1.036524922526228</v>
       </c>
       <c r="F5">
-        <v>1.062505497155984</v>
+        <v>1.051367896396555</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048012449987667</v>
+        <v>1.060804495661413</v>
       </c>
       <c r="J5">
-        <v>1.051149861223877</v>
+        <v>1.047635024205524</v>
       </c>
       <c r="K5">
-        <v>1.055417171980775</v>
+        <v>1.054864602476945</v>
       </c>
       <c r="L5">
-        <v>1.052730087372701</v>
+        <v>1.045987572681733</v>
       </c>
       <c r="M5">
-        <v>1.064873875393324</v>
+        <v>1.060673431940748</v>
       </c>
       <c r="N5">
-        <v>1.052642614595389</v>
+        <v>1.049122786105313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046807998031541</v>
+        <v>1.029586586721308</v>
       </c>
       <c r="D6">
-        <v>1.053060081179447</v>
+        <v>1.045648217887894</v>
       </c>
       <c r="E6">
-        <v>1.050373463834004</v>
+        <v>1.036700832732802</v>
       </c>
       <c r="F6">
-        <v>1.062545588933259</v>
+        <v>1.051542534915632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048025332506562</v>
+        <v>1.060875828390993</v>
       </c>
       <c r="J6">
-        <v>1.051176599314959</v>
+        <v>1.047753992573035</v>
       </c>
       <c r="K6">
-        <v>1.055442252954225</v>
+        <v>1.054978123971723</v>
       </c>
       <c r="L6">
-        <v>1.052762045594362</v>
+        <v>1.046125655084287</v>
       </c>
       <c r="M6">
-        <v>1.064905407430224</v>
+        <v>1.060810989890119</v>
       </c>
       <c r="N6">
-        <v>1.052669390657628</v>
+        <v>1.049241923421552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046512931173661</v>
+        <v>1.028230708486213</v>
       </c>
       <c r="D7">
-        <v>1.052828306621607</v>
+        <v>1.044609213216662</v>
       </c>
       <c r="E7">
-        <v>1.050094150815973</v>
+        <v>1.035487674081511</v>
       </c>
       <c r="F7">
-        <v>1.062269967607137</v>
+        <v>1.050338119871873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04793666412487</v>
+        <v>1.060382916471426</v>
       </c>
       <c r="J7">
-        <v>1.050992728584099</v>
+        <v>1.046932999072411</v>
       </c>
       <c r="K7">
-        <v>1.055269767269968</v>
+        <v>1.054194650203722</v>
       </c>
       <c r="L7">
-        <v>1.0525423068684</v>
+        <v>1.045172995705295</v>
       </c>
       <c r="M7">
-        <v>1.064688592255665</v>
+        <v>1.059861909573452</v>
       </c>
       <c r="N7">
-        <v>1.05248525880924</v>
+        <v>1.048419764015987</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045280538833057</v>
+        <v>1.022449769835644</v>
       </c>
       <c r="D8">
-        <v>1.051860288757976</v>
+        <v>1.040184611045672</v>
       </c>
       <c r="E8">
-        <v>1.048928269486809</v>
+        <v>1.030325515543172</v>
       </c>
       <c r="F8">
-        <v>1.061119353076505</v>
+        <v>1.045212557250205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047563912740383</v>
+        <v>1.058261264835151</v>
       </c>
       <c r="J8">
-        <v>1.050223822693494</v>
+        <v>1.043426206343102</v>
       </c>
       <c r="K8">
-        <v>1.054548209905028</v>
+        <v>1.050846436721067</v>
       </c>
       <c r="L8">
-        <v>1.05162414255981</v>
+        <v>1.041109797917525</v>
       </c>
       <c r="M8">
-        <v>1.063782474660187</v>
+        <v>1.055813037576521</v>
       </c>
       <c r="N8">
-        <v>1.051715260984075</v>
+        <v>1.044907991238768</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043112513755309</v>
+        <v>1.011802008699486</v>
       </c>
       <c r="D9">
-        <v>1.050157479969602</v>
+        <v>1.032058662536545</v>
       </c>
       <c r="E9">
-        <v>1.046879963782977</v>
+        <v>1.020859241041066</v>
       </c>
       <c r="F9">
-        <v>1.059097337802233</v>
+        <v>1.03581166198058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046899081274769</v>
+        <v>1.0542789656824</v>
       </c>
       <c r="J9">
-        <v>1.048867633242341</v>
+        <v>1.036944782219976</v>
       </c>
       <c r="K9">
-        <v>1.053274555492503</v>
+        <v>1.044652174528253</v>
       </c>
       <c r="L9">
-        <v>1.050007453469231</v>
+        <v>1.03362271999614</v>
       </c>
       <c r="M9">
-        <v>1.062186365355691</v>
+        <v>1.048349262082644</v>
       </c>
       <c r="N9">
-        <v>1.050357145588344</v>
+        <v>1.038417362749958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041669649810794</v>
+        <v>1.004360180395773</v>
       </c>
       <c r="D10">
-        <v>1.049024346662003</v>
+        <v>1.02639860176247</v>
       </c>
       <c r="E10">
-        <v>1.045518625396685</v>
+        <v>1.014273837072968</v>
       </c>
       <c r="F10">
-        <v>1.057753120715913</v>
+        <v>1.029271179288449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046450520806529</v>
+        <v>1.051447688013587</v>
       </c>
       <c r="J10">
-        <v>1.047962704036091</v>
+        <v>1.032401867484715</v>
       </c>
       <c r="K10">
-        <v>1.052424047205063</v>
+        <v>1.040307036677376</v>
       </c>
       <c r="L10">
-        <v>1.048930556249003</v>
+        <v>1.028390068366747</v>
       </c>
       <c r="M10">
-        <v>1.061122756859943</v>
+        <v>1.04313130811379</v>
       </c>
       <c r="N10">
-        <v>1.049450931278824</v>
+        <v>1.033867996554693</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041045475834318</v>
+        <v>1.001048291851089</v>
       </c>
       <c r="D11">
-        <v>1.048534195878929</v>
+        <v>1.023885002485564</v>
       </c>
       <c r="E11">
-        <v>1.044930163338097</v>
+        <v>1.011350936539126</v>
       </c>
       <c r="F11">
-        <v>1.057171977350647</v>
+        <v>1.026368228916664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046255030258024</v>
+        <v>1.050176834709569</v>
       </c>
       <c r="J11">
-        <v>1.047570681074801</v>
+        <v>1.03037752558945</v>
       </c>
       <c r="K11">
-        <v>1.052055446671656</v>
+        <v>1.038370114813813</v>
       </c>
       <c r="L11">
-        <v>1.048464473961206</v>
+        <v>1.026061919225471</v>
       </c>
       <c r="M11">
-        <v>1.060662327462456</v>
+        <v>1.040809441073791</v>
       </c>
       <c r="N11">
-        <v>1.049058351599964</v>
+        <v>1.031840779861741</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040813720262016</v>
+        <v>0.9998039173613168</v>
       </c>
       <c r="D12">
-        <v>1.048352209025617</v>
+        <v>1.022941439772795</v>
       </c>
       <c r="E12">
-        <v>1.044711734848115</v>
+        <v>1.010253946898209</v>
       </c>
       <c r="F12">
-        <v>1.056956253184017</v>
+        <v>1.025278741689795</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046182227501265</v>
+        <v>1.049697759983018</v>
       </c>
       <c r="J12">
-        <v>1.047425039772077</v>
+        <v>1.029616578075649</v>
       </c>
       <c r="K12">
-        <v>1.051918484178247</v>
+        <v>1.037641932279489</v>
       </c>
       <c r="L12">
-        <v>1.04829138457072</v>
+        <v>1.025187299320485</v>
       </c>
       <c r="M12">
-        <v>1.060491322681561</v>
+        <v>1.03993715324378</v>
       </c>
       <c r="N12">
-        <v>1.048912503469885</v>
+        <v>1.031078751715188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040863428511408</v>
+        <v>1.000071494578173</v>
       </c>
       <c r="D13">
-        <v>1.048391242318805</v>
+        <v>1.023144293091119</v>
       </c>
       <c r="E13">
-        <v>1.044758581577752</v>
+        <v>1.010489775569283</v>
       </c>
       <c r="F13">
-        <v>1.057002520466539</v>
+        <v>1.025512956612137</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046197852476922</v>
+        <v>1.049800845637412</v>
       </c>
       <c r="J13">
-        <v>1.047456281511201</v>
+        <v>1.029780218963112</v>
       </c>
       <c r="K13">
-        <v>1.051947865247613</v>
+        <v>1.037798531262585</v>
       </c>
       <c r="L13">
-        <v>1.04832851126208</v>
+        <v>1.025375361513583</v>
       </c>
       <c r="M13">
-        <v>1.060528002900257</v>
+        <v>1.040124715074293</v>
       </c>
       <c r="N13">
-        <v>1.048943789575861</v>
+        <v>1.031242624991482</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041026316996095</v>
+        <v>1.000945725438565</v>
       </c>
       <c r="D14">
-        <v>1.048519151210926</v>
+        <v>1.023807212091981</v>
       </c>
       <c r="E14">
-        <v>1.04491210485202</v>
+        <v>1.011260492865876</v>
       </c>
       <c r="F14">
-        <v>1.057154142693178</v>
+        <v>1.026278403413735</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046249016208854</v>
+        <v>1.050137379193244</v>
       </c>
       <c r="J14">
-        <v>1.047558642854959</v>
+        <v>1.030314811891042</v>
       </c>
       <c r="K14">
-        <v>1.052044126279664</v>
+        <v>1.038310103340671</v>
       </c>
       <c r="L14">
-        <v>1.048450165631789</v>
+        <v>1.025989826468716</v>
       </c>
       <c r="M14">
-        <v>1.060648191755609</v>
+        <v>1.040737541048262</v>
       </c>
       <c r="N14">
-        <v>1.049046296284469</v>
+        <v>1.031777977102688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041126689979294</v>
+        <v>1.001482464366535</v>
       </c>
       <c r="D15">
-        <v>1.048597970340401</v>
+        <v>1.024214331885809</v>
       </c>
       <c r="E15">
-        <v>1.04500671585786</v>
+        <v>1.011733842924555</v>
       </c>
       <c r="F15">
-        <v>1.057247580526748</v>
+        <v>1.026748518878241</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046280514863773</v>
+        <v>1.050343789322939</v>
       </c>
       <c r="J15">
-        <v>1.047621707570585</v>
+        <v>1.030642984425811</v>
       </c>
       <c r="K15">
-        <v>1.052103429567528</v>
+        <v>1.038624131633497</v>
       </c>
       <c r="L15">
-        <v>1.048525125484408</v>
+        <v>1.026367099894456</v>
       </c>
       <c r="M15">
-        <v>1.060722246654592</v>
+        <v>1.04111380480579</v>
       </c>
       <c r="N15">
-        <v>1.049109450559225</v>
+        <v>1.032106615680098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041711086811942</v>
+        <v>1.00457803117853</v>
       </c>
       <c r="D16">
-        <v>1.049056887075895</v>
+        <v>1.026564059315068</v>
       </c>
       <c r="E16">
-        <v>1.045557701002134</v>
+        <v>1.014466268667092</v>
       </c>
       <c r="F16">
-        <v>1.05779170861191</v>
+        <v>1.029462298792013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0464634683535</v>
+        <v>1.051531061176648</v>
       </c>
       <c r="J16">
-        <v>1.047988717539335</v>
+        <v>1.032534975521196</v>
       </c>
       <c r="K16">
-        <v>1.052448503246489</v>
+        <v>1.040434382612226</v>
       </c>
       <c r="L16">
-        <v>1.048961493349875</v>
+        <v>1.028543226323463</v>
       </c>
       <c r="M16">
-        <v>1.061153316671527</v>
+        <v>1.043284048331322</v>
       </c>
       <c r="N16">
-        <v>1.049476981724227</v>
+        <v>1.034001293619853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042077823640154</v>
+        <v>1.006495321896864</v>
       </c>
       <c r="D17">
-        <v>1.049344889143769</v>
+        <v>1.028020856345641</v>
       </c>
       <c r="E17">
-        <v>1.045903589806709</v>
+        <v>1.016160746290034</v>
       </c>
       <c r="F17">
-        <v>1.0581332708156</v>
+        <v>1.031145225556227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046577893068163</v>
+        <v>1.052263595697984</v>
       </c>
       <c r="J17">
-        <v>1.048218884946545</v>
+        <v>1.033706162617239</v>
       </c>
       <c r="K17">
-        <v>1.052664872558295</v>
+        <v>1.041554790733573</v>
       </c>
       <c r="L17">
-        <v>1.049235275392737</v>
+        <v>1.029891230678388</v>
       </c>
       <c r="M17">
-        <v>1.061423748473028</v>
+        <v>1.044628347947292</v>
       </c>
       <c r="N17">
-        <v>1.049707475995555</v>
+        <v>1.03517414393591</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042291792433531</v>
+        <v>1.007605059673256</v>
       </c>
       <c r="D18">
-        <v>1.049512924359988</v>
+        <v>1.028864559847115</v>
       </c>
       <c r="E18">
-        <v>1.046105437913788</v>
+        <v>1.017142260038986</v>
       </c>
       <c r="F18">
-        <v>1.058332586122407</v>
+        <v>1.032120048796838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046644513370557</v>
+        <v>1.052686559115858</v>
       </c>
       <c r="J18">
-        <v>1.04835312001681</v>
+        <v>1.03438380410698</v>
       </c>
       <c r="K18">
-        <v>1.052791045711179</v>
+        <v>1.042202983748512</v>
       </c>
       <c r="L18">
-        <v>1.049394989107919</v>
+        <v>1.030671513765121</v>
       </c>
       <c r="M18">
-        <v>1.061581498277918</v>
+        <v>1.045406461411826</v>
       </c>
       <c r="N18">
-        <v>1.049841901695018</v>
+        <v>1.035852747754292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042364759970976</v>
+        <v>1.007982017012829</v>
       </c>
       <c r="D19">
-        <v>1.04957022820906</v>
+        <v>1.029151233399744</v>
       </c>
       <c r="E19">
-        <v>1.046174279318328</v>
+        <v>1.017475786313736</v>
       </c>
       <c r="F19">
-        <v>1.058400562349581</v>
+        <v>1.032451301243783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046667208512576</v>
+        <v>1.052830055556273</v>
       </c>
       <c r="J19">
-        <v>1.048398887679309</v>
+        <v>1.034613943041179</v>
       </c>
       <c r="K19">
-        <v>1.052834062139545</v>
+        <v>1.042423109607444</v>
       </c>
       <c r="L19">
-        <v>1.049449450934521</v>
+        <v>1.030936568738417</v>
       </c>
       <c r="M19">
-        <v>1.061635288802033</v>
+        <v>1.045670774805867</v>
       </c>
       <c r="N19">
-        <v>1.049887734352847</v>
+        <v>1.036083213512175</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042038470304588</v>
+        <v>1.006290507976514</v>
       </c>
       <c r="D20">
-        <v>1.049313984223041</v>
+        <v>1.027865181960532</v>
       </c>
       <c r="E20">
-        <v>1.045866469166772</v>
+        <v>1.015979657034898</v>
       </c>
       <c r="F20">
-        <v>1.058096615326483</v>
+        <v>1.030965370627969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046565628962799</v>
+        <v>1.05218544959871</v>
       </c>
       <c r="J20">
-        <v>1.048194191984534</v>
+        <v>1.033581076339192</v>
       </c>
       <c r="K20">
-        <v>1.052641661420366</v>
+        <v>1.041435134791333</v>
       </c>
       <c r="L20">
-        <v>1.049205898961558</v>
+        <v>1.029747224929433</v>
       </c>
       <c r="M20">
-        <v>1.061394732501139</v>
+        <v>1.044484740506778</v>
       </c>
       <c r="N20">
-        <v>1.049682747966707</v>
+        <v>1.035048880021</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040978347893196</v>
+        <v>1.000688684207488</v>
       </c>
       <c r="D21">
-        <v>1.048481483094701</v>
+        <v>1.023612276202715</v>
       </c>
       <c r="E21">
-        <v>1.044866891853371</v>
+        <v>1.011033852381799</v>
       </c>
       <c r="F21">
-        <v>1.057109489895912</v>
+        <v>1.026053312273763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046233954973938</v>
+        <v>1.050038474657828</v>
       </c>
       <c r="J21">
-        <v>1.047528500715198</v>
+        <v>1.030157640010269</v>
       </c>
       <c r="K21">
-        <v>1.05201578111797</v>
+        <v>1.03815970221448</v>
       </c>
       <c r="L21">
-        <v>1.048414340495939</v>
+        <v>1.025809157467969</v>
       </c>
       <c r="M21">
-        <v>1.060612798594103</v>
+        <v>1.040557354631613</v>
       </c>
       <c r="N21">
-        <v>1.049016111339412</v>
+        <v>1.031620582019816</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040312330552301</v>
+        <v>0.9970840817568929</v>
       </c>
       <c r="D22">
-        <v>1.047958502589416</v>
+        <v>1.020880770384464</v>
       </c>
       <c r="E22">
-        <v>1.044239301007214</v>
+        <v>1.007858572869915</v>
       </c>
       <c r="F22">
-        <v>1.056489646135636</v>
+        <v>1.022899792473808</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046024325957091</v>
+        <v>1.04864780006512</v>
       </c>
       <c r="J22">
-        <v>1.047109801212844</v>
+        <v>1.027952792965853</v>
       </c>
       <c r="K22">
-        <v>1.051621988999645</v>
+        <v>1.036049622017446</v>
       </c>
       <c r="L22">
-        <v>1.047916855389794</v>
+        <v>1.023275941031249</v>
       </c>
       <c r="M22">
-        <v>1.060121277357795</v>
+        <v>1.038030852344385</v>
       </c>
       <c r="N22">
-        <v>1.04859681723574</v>
+        <v>1.029412603839698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040665348988378</v>
+        <v>0.9990030321348976</v>
       </c>
       <c r="D23">
-        <v>1.04823570172809</v>
+        <v>1.022334412730237</v>
       </c>
       <c r="E23">
-        <v>1.044571914644251</v>
+        <v>1.009548272665914</v>
       </c>
       <c r="F23">
-        <v>1.056818160626867</v>
+        <v>1.024577899548548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046135557621267</v>
+        <v>1.049388987125437</v>
       </c>
       <c r="J23">
-        <v>1.047331775934121</v>
+        <v>1.029126738006639</v>
       </c>
       <c r="K23">
-        <v>1.051830771524727</v>
+        <v>1.037173158093635</v>
       </c>
       <c r="L23">
-        <v>1.048180562424267</v>
+        <v>1.02462443403915</v>
       </c>
       <c r="M23">
-        <v>1.060381831096486</v>
+        <v>1.039375782297016</v>
       </c>
       <c r="N23">
-        <v>1.048819107186582</v>
+        <v>1.030588216017095</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04205625220567</v>
+        <v>1.006383081048667</v>
       </c>
       <c r="D24">
-        <v>1.04932794867677</v>
+        <v>1.027935543088605</v>
       </c>
       <c r="E24">
-        <v>1.045883242086476</v>
+        <v>1.016061504590484</v>
       </c>
       <c r="F24">
-        <v>1.058113178092895</v>
+        <v>1.031046660300681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046571170960183</v>
+        <v>1.052220773760944</v>
       </c>
       <c r="J24">
-        <v>1.048205349725893</v>
+        <v>1.033637614385891</v>
       </c>
       <c r="K24">
-        <v>1.052652149631613</v>
+        <v>1.041489218579433</v>
       </c>
       <c r="L24">
-        <v>1.049219172840657</v>
+        <v>1.029812313390223</v>
       </c>
       <c r="M24">
-        <v>1.061407843534405</v>
+        <v>1.044549649016874</v>
       </c>
       <c r="N24">
-        <v>1.049693921553338</v>
+        <v>1.035105498358211</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043672566459009</v>
+        <v>1.01461264720748</v>
       </c>
       <c r="D25">
-        <v>1.050597337472839</v>
+        <v>1.034200554780681</v>
       </c>
       <c r="E25">
-        <v>1.04740876569963</v>
+        <v>1.023352899349241</v>
       </c>
       <c r="F25">
-        <v>1.059619414917201</v>
+        <v>1.03828824032122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047071899947793</v>
+        <v>1.05533860888923</v>
       </c>
       <c r="J25">
-        <v>1.049218386423351</v>
+        <v>1.038658049998622</v>
       </c>
       <c r="K25">
-        <v>1.053604077722046</v>
+        <v>1.046290175804702</v>
       </c>
       <c r="L25">
-        <v>1.050425253351087</v>
+        <v>1.035599193913811</v>
       </c>
       <c r="M25">
-        <v>1.062598921194079</v>
+        <v>1.05031989601191</v>
       </c>
       <c r="N25">
-        <v>1.050708396879103</v>
+        <v>1.040133063565363</v>
       </c>
     </row>
   </sheetData>
